--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>
